--- a/projects/AAR_final-project/Data/Variable Names & Labels.xlsx
+++ b/projects/AAR_final-project/Data/Variable Names & Labels.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="-10" windowWidth="19220" windowHeight="3750" activeTab="1"/>
+    <workbookView xWindow="-10" yWindow="-10" windowWidth="19220" windowHeight="3750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
+    <sheet name="Consumption" sheetId="6" r:id="rId2"/>
     <sheet name="Hardware" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Demo" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8004" uniqueCount="7094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8482" uniqueCount="7280">
   <si>
     <t>cqA2</t>
   </si>
@@ -21258,53 +21260,611 @@
     <t>b5_7_Game_Rent_Digtl</t>
   </si>
   <si>
-    <t>netflix.watch.instantly</t>
-  </si>
-  <si>
-    <t>netflix.by.mail</t>
-  </si>
-  <si>
-    <t>amazon.prime</t>
-  </si>
-  <si>
-    <t>hulu</t>
-  </si>
-  <si>
-    <t>cbs.all.access</t>
-  </si>
-  <si>
-    <t>sling.tv</t>
-  </si>
-  <si>
-    <t>wwe.network</t>
-  </si>
-  <si>
-    <t>hbo.now</t>
-  </si>
-  <si>
-    <t>playstation.vue</t>
-  </si>
-  <si>
-    <t>starz</t>
-  </si>
-  <si>
-    <t>showtime</t>
-  </si>
-  <si>
-    <t>noggin</t>
-  </si>
-  <si>
-    <t>playstation.vue.amount</t>
-  </si>
-  <si>
     <t>resp.id</t>
+  </si>
+  <si>
+    <t>b6_1_netflix.watch.instantly</t>
+  </si>
+  <si>
+    <t>b6_2_netflix.by.mail</t>
+  </si>
+  <si>
+    <t>b6_3_amazon.prime</t>
+  </si>
+  <si>
+    <t>b6_4_hulu</t>
+  </si>
+  <si>
+    <t>b6_5_cbs.all.access</t>
+  </si>
+  <si>
+    <t>b6_6_sling.tv</t>
+  </si>
+  <si>
+    <t>b6_7_wwe.network</t>
+  </si>
+  <si>
+    <t>b6_8_hbo.now</t>
+  </si>
+  <si>
+    <t>b6_9_playstation.vue</t>
+  </si>
+  <si>
+    <t>b6_10_starz</t>
+  </si>
+  <si>
+    <t>b6_11_showtime</t>
+  </si>
+  <si>
+    <t>b6_12_noggin</t>
+  </si>
+  <si>
+    <t>b6x9_35_other_playstation.vue.amount</t>
+  </si>
+  <si>
+    <t>b1_1_TV_Buy_Disc_DVD_FS_All</t>
+  </si>
+  <si>
+    <t>b1_2_TV_Buy_Disc_Blu.ray_FS_All</t>
+  </si>
+  <si>
+    <t>b1_3_TV_Buy_Digtl__FS_All</t>
+  </si>
+  <si>
+    <t>b1_4_TV_Buy_Digtl__Ep_All</t>
+  </si>
+  <si>
+    <t>b1_5_TV_Rent_Disc_Store_FS_All</t>
+  </si>
+  <si>
+    <t>b1_6_TV_Rent_Disc_Mail_FS_All</t>
+  </si>
+  <si>
+    <t>b1_7_TV_Rent_Digtl_Sub_FS_All</t>
+  </si>
+  <si>
+    <t>b1_8_TV_Rent_Digtl_Sub_Ep_All</t>
+  </si>
+  <si>
+    <t>b1_9_TV_Free_Digtl_Ads_FS_All</t>
+  </si>
+  <si>
+    <t>b1_10_TV_Free_Digtl_Ads_Ep_All</t>
+  </si>
+  <si>
+    <t>b1_11_TV_Free_Digtl_cVOD_Ep_All</t>
+  </si>
+  <si>
+    <t>b1a_1_TV_Buy_Disc_DVD_FS_Fam</t>
+  </si>
+  <si>
+    <t>b1a_2_TV_Buy_Disc_Blu.ray_FS_Fam</t>
+  </si>
+  <si>
+    <t>b1a_3_TV_Buy_Digtl__FS_Fam</t>
+  </si>
+  <si>
+    <t>b1a_4_TV_Buy_Digtl__Ep_Fam</t>
+  </si>
+  <si>
+    <t>b1a_5_TV_Rent_Disc_Store_FS_Fam</t>
+  </si>
+  <si>
+    <t>b1a_6_TV_Rent_Disc_Mail_FS_Fam</t>
+  </si>
+  <si>
+    <t>b1a_7_TV_Rent_Digtl_Sub_FS_Fam</t>
+  </si>
+  <si>
+    <t>b1a_8_TV_Rent_Digtl_Sub_Ep_Fam</t>
+  </si>
+  <si>
+    <t>b2_1_TV_Buy_Disc_DVD_FS_Catalog</t>
+  </si>
+  <si>
+    <t>b2_2_TV_Buy_Disc_Blu.ray_FS_Catalog</t>
+  </si>
+  <si>
+    <t>b2_3_TV_Buy_Digtl__FS_Catalog</t>
+  </si>
+  <si>
+    <t>b2_4_TV_Buy_Digtl__Ep_Catalog</t>
+  </si>
+  <si>
+    <t>b2_5_TV_Rent_Disc_Store_FS_Catalog</t>
+  </si>
+  <si>
+    <t>b2_6_TV_Rent_Disc_Mail_FS_Catalog</t>
+  </si>
+  <si>
+    <t>b3_1_Mo_Rent_Theater___All</t>
+  </si>
+  <si>
+    <t>b3_2_Mo_Buy_Disc_DVD__All</t>
+  </si>
+  <si>
+    <t>b3_3_Mo_Buy_Disc_Blu.ray__All</t>
+  </si>
+  <si>
+    <t>b3_4_Mo_Buy_Digtl___All</t>
+  </si>
+  <si>
+    <t>b3_5_Mo_Rent_Disc_Store__All</t>
+  </si>
+  <si>
+    <t>b3_6_Mo_Rent_Disc_Kiosk__All</t>
+  </si>
+  <si>
+    <t>b3_7_Mo_Rent_Disc_Mail__All</t>
+  </si>
+  <si>
+    <t>b3_8_Mo_Rent_Digtl_Trans__All</t>
+  </si>
+  <si>
+    <t>b3_9_Mo_Rent_Digtl_Sub__All</t>
+  </si>
+  <si>
+    <t>b3_10_Mo_Free_Digtl___All</t>
+  </si>
+  <si>
+    <t>b3_11_Mo_Rent_Digtl_cVOD__All</t>
+  </si>
+  <si>
+    <t>b3a_2_Mo_Buy_Disc_DVD__Fam</t>
+  </si>
+  <si>
+    <t>b3a_3_Mo_Buy_Disc_Blu.ray__Fam</t>
+  </si>
+  <si>
+    <t>b3a_4_Mo_Buy_Digtl___Fam</t>
+  </si>
+  <si>
+    <t>b3a_5_Mo_Rent_Disc_Store__Fam</t>
+  </si>
+  <si>
+    <t>b3a_6_Mo_Rent_Disc_Kiosk__Fam</t>
+  </si>
+  <si>
+    <t>b3a_7_Mo_Rent_Disc_Mail__Fam</t>
+  </si>
+  <si>
+    <t>b3a_8_Mo_Rent_Digtl_Trans__Fam</t>
+  </si>
+  <si>
+    <t>b3a_9_Mo_Rent_Digtl_Sub__Fam</t>
+  </si>
+  <si>
+    <t>b3a_11_Mo_Rent_Digtl_cVOD__Fam</t>
+  </si>
+  <si>
+    <t>b4_2_Mo_Buy_Disc_DVD__Catalog</t>
+  </si>
+  <si>
+    <t>b4_3_Mo_Buy_Disc_Blu.ray__Catalog</t>
+  </si>
+  <si>
+    <t>b4_4_Mo_Buy_Digtl___Catalog</t>
+  </si>
+  <si>
+    <t>b4_5_Mo_Rent_Disc_Store__Catalog</t>
+  </si>
+  <si>
+    <t>b4_6_Mo_Rent_Disc_Kiosk__Catalog</t>
+  </si>
+  <si>
+    <t>b4_7_Mo_Rent_Disc_Mail__Catalog</t>
+  </si>
+  <si>
+    <t>b4_8_Mo_Rent_Digtl_Trans__Catalog</t>
+  </si>
+  <si>
+    <t>b4_11_Mo_Rent_Digtl_cVOD__Catalog</t>
+  </si>
+  <si>
+    <t>RENAME VARIABLES (</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>b1a_9_TV_Free_Digtl_Ads_FS_Fam</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>dm3_parentU18</t>
+  </si>
+  <si>
+    <t>dm7_income</t>
+  </si>
+  <si>
+    <t>dm9_employment</t>
+  </si>
+  <si>
+    <t>dm11_education</t>
+  </si>
+  <si>
+    <t>dm12_marital_status</t>
+  </si>
+  <si>
+    <t>dm5_parboy_2to3</t>
+  </si>
+  <si>
+    <t>dm5_parboy_4to5</t>
+  </si>
+  <si>
+    <t>dm5_parboy_6to8</t>
+  </si>
+  <si>
+    <t>dm5_parboy_9to11</t>
+  </si>
+  <si>
+    <t>dm5_parboy_12to14</t>
+  </si>
+  <si>
+    <t>dm5_parboy_15to17</t>
+  </si>
+  <si>
+    <t>dm5_pargirl_2to3</t>
+  </si>
+  <si>
+    <t>dm5_pargirl_4to5</t>
+  </si>
+  <si>
+    <t>dm5_pargirl_6to8</t>
+  </si>
+  <si>
+    <t>dm5_pargirl_9to11</t>
+  </si>
+  <si>
+    <t>dm5_pargirl_12to14</t>
+  </si>
+  <si>
+    <t>dm5_pargirl_15to17</t>
+  </si>
+  <si>
+    <t>dm5_parboy_U2</t>
+  </si>
+  <si>
+    <t>dm5_pargirl_U2</t>
+  </si>
+  <si>
+    <t>dm6_rel.in.house_parent</t>
+  </si>
+  <si>
+    <t>dm6_rel.in.house_children</t>
+  </si>
+  <si>
+    <t>dm6_rel.in.house_grandparent</t>
+  </si>
+  <si>
+    <t>dm6_rel.in.house_grandchildren</t>
+  </si>
+  <si>
+    <t>dm6_rel.in.house_partner</t>
+  </si>
+  <si>
+    <t>dm6_rel.in.house_other</t>
+  </si>
+  <si>
+    <t>dm6_rel.in.house_unrelated</t>
+  </si>
+  <si>
+    <t>s3_gender</t>
+  </si>
+  <si>
+    <t>s4_age</t>
+  </si>
+  <si>
+    <t>s5_zip.code</t>
+  </si>
+  <si>
+    <t>s6_state</t>
+  </si>
+  <si>
+    <t>s7_span.lang.dom</t>
+  </si>
+  <si>
+    <t>Service_Cable_Provider</t>
+  </si>
+  <si>
+    <t>Device_Smartphone_Brand</t>
+  </si>
+  <si>
+    <t>Service_Cable_CancelTime</t>
+  </si>
+  <si>
+    <t>Device_TV_Std</t>
+  </si>
+  <si>
+    <t>Device_TV_HD</t>
+  </si>
+  <si>
+    <t>Device_TV_3D</t>
+  </si>
+  <si>
+    <t>Device_TV_4K</t>
+  </si>
+  <si>
+    <t>Device_TV_SmartTV</t>
+  </si>
+  <si>
+    <t>Device_Player_DVD</t>
+  </si>
+  <si>
+    <t>Device_DVR</t>
+  </si>
+  <si>
+    <t>Device_Stream_Chromecast</t>
+  </si>
+  <si>
+    <t>Device_Stream_Other</t>
+  </si>
+  <si>
+    <t>Device_Computer_Desktop</t>
+  </si>
+  <si>
+    <t>Device_Computer_Laptop</t>
+  </si>
+  <si>
+    <t>Device_Smartphone</t>
+  </si>
+  <si>
+    <t>Device_Wearable</t>
+  </si>
+  <si>
+    <t>Device_Tablet_iPad</t>
+  </si>
+  <si>
+    <t>Device_Tablet_Other</t>
+  </si>
+  <si>
+    <t>Device_Game_PS3</t>
+  </si>
+  <si>
+    <t>Device_Game_PS4</t>
+  </si>
+  <si>
+    <t>Device_Game_Handheld</t>
+  </si>
+  <si>
+    <t>Service_Cable_Basic</t>
+  </si>
+  <si>
+    <t>Service_Cable_Expanded</t>
+  </si>
+  <si>
+    <t>Service_Cable_Premium</t>
+  </si>
+  <si>
+    <t>Service_Broadband</t>
+  </si>
+  <si>
+    <t>Service_Stream_Netflix</t>
+  </si>
+  <si>
+    <t>Service_Stream_Hulu</t>
+  </si>
+  <si>
+    <t>Service_Stream_Noggin</t>
+  </si>
+  <si>
+    <t>Device_Stream_Apple.TV</t>
+  </si>
+  <si>
+    <t>Device_Stream_Roku.player</t>
+  </si>
+  <si>
+    <t>Device_Stream_Amazon.Fire.Stick</t>
+  </si>
+  <si>
+    <t>Device_Game_Xbox.360</t>
+  </si>
+  <si>
+    <t>Device_Game_Xbox.One</t>
+  </si>
+  <si>
+    <t>Device_Game_Nintendo.Wii</t>
+  </si>
+  <si>
+    <t>Device_Game_Nintendo.Wii.U</t>
+  </si>
+  <si>
+    <t>Device_Game_Other.console</t>
+  </si>
+  <si>
+    <t>Service_Disc_Mail.Sub</t>
+  </si>
+  <si>
+    <t>Service_Stream_Amazon.Prime</t>
+  </si>
+  <si>
+    <t>Service_Stream_CBS.All.Access</t>
+  </si>
+  <si>
+    <t>Service_Stream_WWE.Network</t>
+  </si>
+  <si>
+    <t>Service_Stream_Sling.TV</t>
+  </si>
+  <si>
+    <t>Device_Stream_Roku.stick</t>
+  </si>
+  <si>
+    <t>Device_Stream_Amazon.Fire.TV</t>
+  </si>
+  <si>
+    <t>Service_Stream_HBO.Now</t>
+  </si>
+  <si>
+    <t>Service_Stream_Starz.Play</t>
+  </si>
+  <si>
+    <t>Service_Stream_Playstation.Vue</t>
+  </si>
+  <si>
+    <t>Service_Stream_Showtime.Anytime</t>
+  </si>
+  <si>
+    <t>Device_Virtual.Reality</t>
+  </si>
+  <si>
+    <t>Digital.Locker_iTunes</t>
+  </si>
+  <si>
+    <t>Digital.Locker_UltraViolet</t>
+  </si>
+  <si>
+    <t>Digital.Locker_Amazon.Instant.Video</t>
+  </si>
+  <si>
+    <t>Digital.Locker_Vudu</t>
+  </si>
+  <si>
+    <t>Digital.Locker_Google.Play</t>
+  </si>
+  <si>
+    <t>Digital.Locker_Disney.Movies.Anywhere</t>
+  </si>
+  <si>
+    <t>Digital.Locker_CinemaNow</t>
+  </si>
+  <si>
+    <t>Digital.Locker_Flixster</t>
+  </si>
+  <si>
+    <t>Digital.Locker_Other</t>
+  </si>
+  <si>
+    <t>Digital.Locker_None</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_DVD.player</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_Desktop.computer</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_Laptop.computer</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_Xbox.360</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_Xbox.One</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_PS3</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_PS4</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_Other.Gaming.Console</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_None</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Smart.TV</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_DVR</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Stream_Apple.TV</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Stream_Roku.player</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Stream_Chromecast</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Stream_Amazon.Fire.Stick</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Stream_Other</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Computer_Laptop</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Smartphone</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Tablet_iPad</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Tablet_Other</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Game_Xbox.360</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Game_Xbox.One</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Game_PS3</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Game_PS4</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Game_Nintendo.Wii</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Game_Nintendo.Wii.U</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Game_Other.Console</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Game_Handheld</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Stream_Roku.Stick</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Stream_Amazon.Fire.TV</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_None</t>
+  </si>
+  <si>
+    <t>Device_Player_Blu.ray</t>
+  </si>
+  <si>
+    <t>Device_Player_3D.Blu.ray</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Discs_Blu.ray.player</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Blu.ray.player</t>
+  </si>
+  <si>
+    <t>Device.Service_None</t>
+  </si>
+  <si>
+    <t>Typ.Dev.Watch.Digital_Computer_Desktop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21323,6 +21883,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -21381,7 +21948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -21406,32 +21973,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -21647,7 +22194,7 @@
     <sortCondition ref="C1:C3438"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" name="Original Order" dataDxfId="13"/>
+    <tableColumn id="5" name="Original Order" dataDxfId="10"/>
     <tableColumn id="1" name="Variable Name"/>
     <tableColumn id="2" name="Working Column"/>
     <tableColumn id="3" name="Short_Name"/>
@@ -21658,7 +22205,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B1:L76" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B1:L76" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B1:L76"/>
   <sortState ref="B2:L76">
     <sortCondition ref="B1:B76"/>
@@ -21674,25 +22221,38 @@
     <tableColumn id="7" name="Ep/FS"/>
     <tableColumn id="5" name="Genre"/>
     <tableColumn id="4" name="original label"/>
-    <tableColumn id="17" name="Column8" dataDxfId="10"/>
+    <tableColumn id="17" name="Column8" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:E97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:E97" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B1:E97"/>
   <sortState ref="B2:E97">
     <sortCondition ref="B1:B97"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Orig" dataDxfId="6"/>
-    <tableColumn id="2" name="Current List in Hardware File" dataDxfId="5"/>
-    <tableColumn id="3" name="new name" dataDxfId="4"/>
-    <tableColumn id="4" name="original label" dataDxfId="3"/>
+    <tableColumn id="1" name="Orig" dataDxfId="3"/>
+    <tableColumn id="2" name="Current List in Hardware File" dataDxfId="2"/>
+    <tableColumn id="3" name="new name" dataDxfId="1"/>
+    <tableColumn id="4" name="original label" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D34" totalsRowShown="0">
+  <autoFilter ref="A1:D34"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Original Order"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="New Name"/>
+    <tableColumn id="4" name="Label"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -21985,8 +22545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F3438"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60330,8 +60890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60399,7 +60959,7 @@
         <v>6683</v>
       </c>
       <c r="D2" t="s">
-        <v>7093</v>
+        <v>7080</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>6684</v>
@@ -62608,7 +63168,7 @@
         <v>7060</v>
       </c>
       <c r="D64" t="s">
-        <v>7080</v>
+        <v>7081</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>6874</v>
@@ -62628,7 +63188,7 @@
         <v>7061</v>
       </c>
       <c r="D65" t="s">
-        <v>7081</v>
+        <v>7082</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>6878</v>
@@ -62648,7 +63208,7 @@
         <v>7062</v>
       </c>
       <c r="D66" t="s">
-        <v>7082</v>
+        <v>7083</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>6879</v>
@@ -62668,7 +63228,7 @@
         <v>7063</v>
       </c>
       <c r="D67" t="s">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>6880</v>
@@ -62688,7 +63248,7 @@
         <v>7064</v>
       </c>
       <c r="D68" t="s">
-        <v>7084</v>
+        <v>7085</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>6881</v>
@@ -62708,7 +63268,7 @@
         <v>7065</v>
       </c>
       <c r="D69" t="s">
-        <v>7085</v>
+        <v>7086</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>6882</v>
@@ -62728,7 +63288,7 @@
         <v>7066</v>
       </c>
       <c r="D70" t="s">
-        <v>7086</v>
+        <v>7087</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>6883</v>
@@ -62748,7 +63308,7 @@
         <v>7067</v>
       </c>
       <c r="D71" t="s">
-        <v>7087</v>
+        <v>7088</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>6884</v>
@@ -62768,7 +63328,7 @@
         <v>7068</v>
       </c>
       <c r="D72" t="s">
-        <v>7088</v>
+        <v>7089</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>6885</v>
@@ -62788,7 +63348,7 @@
         <v>7069</v>
       </c>
       <c r="D73" t="s">
-        <v>7089</v>
+        <v>7090</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>6875</v>
@@ -62808,7 +63368,7 @@
         <v>7070</v>
       </c>
       <c r="D74" t="s">
-        <v>7090</v>
+        <v>7091</v>
       </c>
       <c r="K74" s="10" t="s">
         <v>6876</v>
@@ -62828,7 +63388,7 @@
         <v>7071</v>
       </c>
       <c r="D75" t="s">
-        <v>7091</v>
+        <v>7092</v>
       </c>
       <c r="K75" s="10" t="s">
         <v>6877</v>
@@ -62848,7 +63408,7 @@
         <v>7072</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>7092</v>
+        <v>7093</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>6948</v>
@@ -63305,8 +63865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63339,8 +63899,8 @@
       <c r="C2" s="3" t="s">
         <v>6683</v>
       </c>
-      <c r="D2" s="3" t="e">
-        <v>#N/A</v>
+      <c r="D2" s="3" t="s">
+        <v>7080</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6684</v>
@@ -63355,7 +63915,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6688</v>
+        <v>7185</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -63370,7 +63930,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6689</v>
+        <v>7186</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -63385,7 +63945,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6690</v>
+        <v>7187</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
@@ -63400,7 +63960,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6697</v>
+        <v>7188</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -63415,7 +63975,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6691</v>
+        <v>7189</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -63430,7 +63990,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6692</v>
+        <v>7190</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -63445,7 +64005,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6693</v>
+        <v>7191</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -63460,7 +64020,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6694</v>
+        <v>7192</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
@@ -63475,7 +64035,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6695</v>
+        <v>7193</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -63490,7 +64050,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>6696</v>
+        <v>7274</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -63505,7 +64065,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>6698</v>
+        <v>7275</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -63520,7 +64080,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6699</v>
+        <v>7194</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -63535,7 +64095,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6700</v>
+        <v>7213</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -63550,7 +64110,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6701</v>
+        <v>7214</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -63565,7 +64125,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6702</v>
+        <v>7195</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>29</v>
@@ -63580,7 +64140,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6703</v>
+        <v>7215</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
@@ -63595,7 +64155,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6704</v>
+        <v>7196</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>33</v>
@@ -63610,7 +64170,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6705</v>
+        <v>7197</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>35</v>
@@ -63625,7 +64185,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6706</v>
+        <v>7198</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>37</v>
@@ -63640,7 +64200,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6707</v>
+        <v>7199</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>39</v>
@@ -63655,7 +64215,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6708</v>
+        <v>7200</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>41</v>
@@ -63670,7 +64230,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>6710</v>
+        <v>7201</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>43</v>
@@ -63685,7 +64245,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6709</v>
+        <v>7202</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>45</v>
@@ -63700,7 +64260,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6711</v>
+        <v>7216</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>47</v>
@@ -63715,7 +64275,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>6712</v>
+        <v>7217</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>49</v>
@@ -63730,7 +64290,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6713</v>
+        <v>7203</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>51</v>
@@ -63745,7 +64305,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6714</v>
+        <v>7204</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>53</v>
@@ -63760,7 +64320,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>6715</v>
+        <v>7218</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>55</v>
@@ -63775,7 +64335,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>6716</v>
+        <v>7219</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>57</v>
@@ -63790,7 +64350,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6717</v>
+        <v>7220</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
@@ -63805,7 +64365,7 @@
         <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>6718</v>
+        <v>7205</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>61</v>
@@ -63820,7 +64380,7 @@
         <v>62</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6719</v>
+        <v>7206</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>63</v>
@@ -63835,7 +64395,7 @@
         <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6720</v>
+        <v>7207</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>65</v>
@@ -63850,7 +64410,7 @@
         <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>6721</v>
+        <v>7208</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>67</v>
@@ -63865,7 +64425,7 @@
         <v>68</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>6722</v>
+        <v>7209</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>69</v>
@@ -63880,7 +64440,7 @@
         <v>70</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6724</v>
+        <v>7221</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>71</v>
@@ -63895,7 +64455,7 @@
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6723</v>
+        <v>7210</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>73</v>
@@ -63910,7 +64470,7 @@
         <v>74</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6725</v>
+        <v>7222</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>75</v>
@@ -63925,7 +64485,7 @@
         <v>76</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>6726</v>
+        <v>7211</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>77</v>
@@ -63940,7 +64500,7 @@
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6727</v>
+        <v>7223</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>79</v>
@@ -63955,7 +64515,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>6728</v>
+        <v>7224</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>81</v>
@@ -63970,7 +64530,7 @@
         <v>82</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>6729</v>
+        <v>7225</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>83</v>
@@ -63985,7 +64545,7 @@
         <v>84</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>6730</v>
+        <v>7226</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>85</v>
@@ -64000,7 +64560,7 @@
         <v>86</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6731</v>
+        <v>7227</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>87</v>
@@ -64015,7 +64575,7 @@
         <v>88</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6732</v>
+        <v>7228</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>89</v>
@@ -64030,7 +64590,7 @@
         <v>90</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>6733</v>
+        <v>7229</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>91</v>
@@ -64045,7 +64605,7 @@
         <v>92</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>6734</v>
+        <v>7230</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>93</v>
@@ -64060,7 +64620,7 @@
         <v>94</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>6735</v>
+        <v>7231</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>95</v>
@@ -64074,7 +64634,7 @@
         <v>96</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>6736</v>
+        <v>7212</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>97</v>
@@ -64088,7 +64648,7 @@
         <v>98</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6737</v>
+        <v>7232</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>99</v>
@@ -64102,7 +64662,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6738</v>
+        <v>7278</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>101</v>
@@ -64116,7 +64676,7 @@
         <v>234</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>6805</v>
+        <v>7233</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>235</v>
@@ -64130,7 +64690,7 @@
         <v>236</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>6806</v>
+        <v>7234</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>237</v>
@@ -64144,7 +64704,7 @@
         <v>238</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>6807</v>
+        <v>7235</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>239</v>
@@ -64158,7 +64718,7 @@
         <v>240</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6808</v>
+        <v>7236</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>241</v>
@@ -64172,7 +64732,7 @@
         <v>242</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6809</v>
+        <v>7237</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>243</v>
@@ -64186,7 +64746,7 @@
         <v>244</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6810</v>
+        <v>7238</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>245</v>
@@ -64200,7 +64760,7 @@
         <v>246</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>6811</v>
+        <v>7239</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>247</v>
@@ -64214,7 +64774,7 @@
         <v>248</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>6812</v>
+        <v>7240</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>249</v>
@@ -64228,7 +64788,7 @@
         <v>250</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6813</v>
+        <v>7241</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>251</v>
@@ -64242,7 +64802,7 @@
         <v>252</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6814</v>
+        <v>7242</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>253</v>
@@ -64256,7 +64816,7 @@
         <v>254</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6815</v>
+        <v>7243</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>255</v>
@@ -64270,7 +64830,7 @@
         <v>256</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6816</v>
+        <v>7276</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>257</v>
@@ -64284,7 +64844,7 @@
         <v>258</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>6817</v>
+        <v>7244</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>259</v>
@@ -64298,7 +64858,7 @@
         <v>260</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>6818</v>
+        <v>7245</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>261</v>
@@ -64312,7 +64872,7 @@
         <v>262</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>6819</v>
+        <v>7246</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>263</v>
@@ -64326,7 +64886,7 @@
         <v>264</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>6820</v>
+        <v>7247</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>265</v>
@@ -64340,7 +64900,7 @@
         <v>266</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>6821</v>
+        <v>7248</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>267</v>
@@ -64354,7 +64914,7 @@
         <v>268</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>6822</v>
+        <v>7249</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>269</v>
@@ -64368,7 +64928,7 @@
         <v>270</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>6823</v>
+        <v>7250</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>271</v>
@@ -64382,7 +64942,7 @@
         <v>272</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>6824</v>
+        <v>7251</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>273</v>
@@ -64396,7 +64956,7 @@
         <v>274</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>6825</v>
+        <v>7252</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>275</v>
@@ -64410,7 +64970,7 @@
         <v>276</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6826</v>
+        <v>7277</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>277</v>
@@ -64424,7 +64984,7 @@
         <v>278</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6827</v>
+        <v>7253</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>279</v>
@@ -64438,7 +64998,7 @@
         <v>280</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>6828</v>
+        <v>7254</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>281</v>
@@ -64452,7 +65012,7 @@
         <v>282</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>6829</v>
+        <v>7255</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>283</v>
@@ -64466,7 +65026,7 @@
         <v>284</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>6830</v>
+        <v>7256</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>285</v>
@@ -64480,7 +65040,7 @@
         <v>286</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>6831</v>
+        <v>7257</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>287</v>
@@ -64494,7 +65054,7 @@
         <v>288</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6832</v>
+        <v>7258</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>289</v>
@@ -64508,7 +65068,7 @@
         <v>290</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>6833</v>
+        <v>7279</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>291</v>
@@ -64522,7 +65082,7 @@
         <v>292</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>6834</v>
+        <v>7259</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>293</v>
@@ -64536,7 +65096,7 @@
         <v>294</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>6835</v>
+        <v>7260</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>295</v>
@@ -64550,7 +65110,7 @@
         <v>296</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>6836</v>
+        <v>7261</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>297</v>
@@ -64564,7 +65124,7 @@
         <v>298</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>6837</v>
+        <v>7262</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>299</v>
@@ -64578,7 +65138,7 @@
         <v>300</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>6838</v>
+        <v>7263</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>301</v>
@@ -64592,7 +65152,7 @@
         <v>302</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6839</v>
+        <v>7264</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>303</v>
@@ -64606,7 +65166,7 @@
         <v>304</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>6840</v>
+        <v>7265</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>305</v>
@@ -64620,7 +65180,7 @@
         <v>306</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>6841</v>
+        <v>7266</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>307</v>
@@ -64634,7 +65194,7 @@
         <v>308</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>6842</v>
+        <v>7267</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>309</v>
@@ -64648,7 +65208,7 @@
         <v>310</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>6843</v>
+        <v>7268</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>311</v>
@@ -64662,7 +65222,7 @@
         <v>312</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>6844</v>
+        <v>7269</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>313</v>
@@ -64676,7 +65236,7 @@
         <v>314</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>6845</v>
+        <v>7270</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>315</v>
@@ -64690,7 +65250,7 @@
         <v>316</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>6846</v>
+        <v>7271</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>317</v>
@@ -64704,7 +65264,7 @@
         <v>318</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>6847</v>
+        <v>7272</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>319</v>
@@ -64718,7 +65278,7 @@
         <v>320</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>6848</v>
+        <v>7273</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>321</v>
@@ -64726,8 +65286,1803 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F75"/>
+  <sheetViews>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6683</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7080</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7094</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7095</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7096</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7097</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7098</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7099</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>7150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>396</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7117</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>402</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>410</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7122</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>412</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>414</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>416</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7126</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>420</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>422</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>444</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7130</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>446</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7133</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7134</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C44" t="s">
+        <v>454</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>456</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7136</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7137</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>460</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7138</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>478</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7139</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>480</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7140</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>482</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7141</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>484</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7142</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>486</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7143</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>488</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7144</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>490</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7145</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>492</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7146</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>494</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7073</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>496</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7074</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>498</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7075</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C59" t="s">
+        <v>500</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7076</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>502</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7077</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>504</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7078</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>506</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7079</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>688</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7081</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>690</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7082</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>692</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7083</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>694</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7084</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>696</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7085</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>698</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7086</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>700</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7087</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>702</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7088</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>704</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7089</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>706</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7090</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>708</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7091</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>710</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7092</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>712</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7148</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7093</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="195.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6869</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6683</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7080</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7171</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7159</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7163</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7166</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7168</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7174</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7176</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6665</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6667</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7181</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6669</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6671</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7183</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6673</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7184</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6675</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>